--- a/화학물질관리법.xlsx
+++ b/화학물질관리법.xlsx
@@ -313,836 +313,628 @@
     <t>법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제57조부터 제62조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다</t>
   </si>
   <si>
-    <t xml:space="preserve"> ① 이 법은 다음 각 호의 어느 하나에 해당하는 화학물질에는 적용하지 아니한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항제13호에 해당하는 화학물질에 대하여는 제1항에도 불구하고 제4조부터 제23조까지(제6조제3항제1호부터 제5호까지, 제13조, 제16조, 제19조 및 제20조는 제외한다), 제23조의2, 제23조의3, 제26조, 제39조부터 제50조까지(제49조제1항제7호ㆍ제8호 및 제50조제1항제6호는 제외한다), 제52조, 제54조부터 제64조까지(제54조제8호부터 제13호까지, 제58조제4호ㆍ제5호, 제59조제7호부터 제9호까지, 제59조제11호, 제61조제4호, 제64조제1항제5호부터 제9호까지 및 제64조제2항제4호는 제외한다)를 적용한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항제2호부터 제13호까지의 규정에 따른 화학물질의 관리 및 화학사고 대응에 관하여 관계 법률에 다른 특별한 규정이 있는 경우를 제외하고는 제1항에도 불구하고 이 법에 따른다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국가 및 지방자치단체는 화학물질의 유해성ㆍ위해성으로부터 국민건강과 환경에 미치는 영향을 늘 파악하고, 국민건강이나 환경상의 위해를 예방하기 위하여 필요한 시책을 수립ㆍ시행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국가 및 지방자치단체는 화학물질의 관리를 위한 오염도 측정, 조사ㆍ연구, 기술개발, 전문인력 양성, 교육 및 홍보시책 등을 강구하여야 하고, 화학물질의 안전관리에 필요한 행정적ㆍ기술적ㆍ재정적 지원을 하여야 한다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 국가는 화학물질 안전관리와 관련된 기술개발을 촉진하고 분야별 전문인력을 양성하기 위하여 다음 각 호의 사업을 실시하는 자에게 자금의 전부나 일부를 출연하거나 보조할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 중소기업의 화학물질 안전관리를 위하여 관계 중앙행정기관의 장과 협의를 거쳐 다음 각 호의 사항에 대한 행정적ㆍ기술적ㆍ재정적 지원방안을 마련하여 시행할 수 있다. &lt;신설 2016.1.27, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 화학물질을 취급하는 자는 화학물질로 인한 국민건강상 또는 환경상의 위해가 발생하지 아니하도록 적절한 시설ㆍ설비의 유지, 종업원의 교육, 기술개발 및 정보의 교환 등 필요한 조치를 하여야 하며, 화학물질의 적절한 관리를 위한 국가의 시책에 참여하고 협력하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 화학물질을 취급하는 자는 해당 화학물질의 안전한 관리에 관한 책임을 진다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해성ㆍ위해성이 있는 화학물질을 효율적으로 관리하기 위하여 5년마다 화학물질의 관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 기본계획을 수립하는 경우 미리 관계 중앙행정기관의 장과 협의한 후 제7조에 따른 화학물질관리위원회의 심의를 거쳐야 한다. 기본계획을 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 기본계획에는 다음 각 호의 사항이 포함되어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 기본계획을 수립하면 지체 없이 그 내용을 관계 중앙행정기관의 장 및 지방자치단체의 장에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 관계 중앙행정기관의 장 및 지방자치단체의 장은 기본계획에 따라 소관 사항에 속하는 시책을 수립ㆍ시행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 기본계획의 수립 등 화학물질 관리와 관련한 중요 사항을 심의하기 위하여 환경부장관 소속으로 화학물질관리위원회(이하 "관리위원회"라 한다)를 둔다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 관리위원회는 위원장과 부위원장 각 1명을 포함한 30명 이내의 위원으로 구성한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 관리위원회 위원장은 화학물질 관리업무를 주관하는 환경부 소속 고위공무원단에 속하는 공무원 중에서 환경부장관이 지명하고, 부위원장은 위원 중에서 위원장이 임명하거나 위촉한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 관리위원회 위원은 화학ㆍ환경ㆍ보건 등 관련 분야의 학식과 경험이 풍부한 전문가와 화학물질 관련 업계의 대표 및 관련 분야의 업무를 담당하는 공무원 중에서 환경부장관이 임명하거나 위촉한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 관리위원회의 회의는 재적위원 과반수의 출석으로 개의(開議)하고, 출석위원 과반수의 찬성으로 의결한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 관리위원회의 심의사항을 전문적으로 연구ㆍ검토하기 위하여 필요한 경우에는 관리위원회의 위원과 관련 분야의 전문가로 구성되는 분야별 전문위원회를 둘 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 그 밖에 관리위원회 및 분야별 전문위원회의 구성ㆍ운영 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 화학물질을 제조하거나 수입하려는 자(수입을 수입 대행자에게 위탁한 경우에는 그 위탁한 자를 말한다. 이하 같다)는 환경부령으로 정하는 바에 따라 해당 화학물질이나 그 성분이 다음 각 호의 어느 하나에 해당하는지를 확인(이하 "화학물질확인"이라 한다)하고, 그 내용을 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에도 불구하고 특정한 고체 형태로 일정한 기능을 발휘하는 제품에 들어있어 그 사용 과정에서 유출되지 아니하는 등 환경부장관이 정하여 고시하는 기준에 해당하는 경우에는 그러하지 아니하다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 화학물질을 제조하거나 수입하려는 자는 화학물질확인을 위하여 필요하다고 인정하면 환경부령으로 정하는 자료를 첨부하여 환경부장관에게 해당 화학물질이나 그 성분이 제1항 각 호의 어느 하나에 해당하는지에 관한 증명을 신청할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 2년마다 화학물질의 취급과 관련된 취급현황, 취급시설 등에 관한 통계조사(이하 "화학물질 통계조사"라 한다)를 실시하여야 한다. 이 경우 통계의 조사ㆍ작성에 관하여는 「통계법」의 관계 규정을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 화학물질 통계조사의 효율적 수립ㆍ시행을 위하여 서면조사 또는 현장조사를 실시하거나 정보체계를 구축ㆍ운영하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 화학물질 통계조사 및 제2항에 따른 정보체계의 구축ㆍ운영을 위하여 필요한 경우에는 관계 중앙행정기관의 장, 지방자치단체의 장, 공공기관(「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관을 말한다)의 장, 관계 기관 및 단체의 장 등에게 필요한 자료 및 정보의 제공을 요청할 수 있다. 이 경우 자료 및 정보의 제공을 요구받은 자는 정당한 사유가 없으면 이에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 화학물질을 취급하는 자에게 화학물질 통계조사에 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장 등에 출입하여 화학물질과 관련된 현황을 조사하게 할 수 있다. 이 경우 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 화학물질 통계조사의 대상, 내용, 방법 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 화학물질 배출로부터 국민의 건강 및 환경을 보호하고 사업장으로 하여금 자발적인 화학물질 배출의 저감을 유도하기 위하여 매년 대통령령으로 정하는 화학물질을 취급하는 사업장에 대하여 해당 화학물질을 취급하는 과정에서 배출되는 화학물질 현황 등의 조사(이하 "화학물질 배출량조사"라 한다)를 실시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 화학물질 배출량조사를 하는 경우 환경부령으로 정하는 바에 따라 화학물질을 취급하는 자에게 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장에 출입하여 해당 화학물질 배출량조사를 하게 할 수 있다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 화학물질 배출량조사를 하려는 때에는 관계 중앙행정기관의 장, 지방자치단체의 장, 공공기관(「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관을 말한다)의 장, 관계 기관 및 단체의 장 등에게 기관별 조사 결과와 필요한 자료를 제출하도록 요청할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제2항에 따라 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 화학물질 배출량조사의 대상, 내용, 방법 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제11조제1항에 따른 화학물질 배출량조사 대상 사업장 중 유해성이 높은 화학물질을 연간 일정량 이상 배출하는 등 환경부령으로 정하는 사업장은 5년마다 화학물질 배출저감계획서(이하 "배출저감계획서"라 한다)를 작성하여 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 배출저감계획서를 제출받으면 환경부령으로 정하는 바에 따라 이를 검토한 후 제출한 자에게 적합 여부를 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 배출저감계획서를 검토한 결과 수정ㆍ보완할 필요가 있는 경우에는 제출한 자에게 수정ㆍ보완을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 배출저감계획서를 수정ㆍ보완하여 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 배출저감계획서를 작성ㆍ제출한 자 중 그 일부 내용을 기업의 영업비밀로 보호받고자 하는 자는 비공개 요청을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 배출저감계획서를 환경부령으로 정하는 바에 따라 사업장 소재지의 지방자치단체의 장에게 제공하여야 하며, 지방자치단체의 장은 제공받은 배출저감계획서를 환경부령으로 정하는 바에 따라 공개할 수 있다. 다만, 제4항에 따라 비공개 요청을 받아 환경부장관이 기업의 영업비밀과 관련되어 배출저감계획서의 일부 내용을 공개하지 아니할 필요가 있다고 인정하는 경우에는 그 내용을 제외하고 제공하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 환경부장관 또는 지방자치단체의 장은 배출저감계획서를 작성ㆍ제출한 자에게 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장에 출입하여 배출저감과 관련된 현황을 조사하게 할 수 있다. 이 경우 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 환경부장관과 사업장 소재지의 지방자치단체의 장은 사업장의 배출저감계획서 이행에 대하여 기술적ㆍ행정적ㆍ재정적 지원을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 배출저감계획서 작성내용ㆍ제출시기, 배출저감계획서의 공개 관련 영업비밀 보호신청 범위ㆍ절차 및 영업비밀 심의 기준ㆍ절차 등은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 화학물질 통계조사와 화학물질 배출량조사를 완료한 때에는 사업장별로 그 결과를 지체 없이 공개하여야 한다. 다만, 다음 각 호의 어느 하나에 해당하는 경우에는 그러하지 아니한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 화학물질을 취급하는 자가 이 법에 따른 규정을 위반하였거나 환경부장관의 명령을 이행하지 아니한 경우 해당 화학물질을 취급하는 자의 인적사항, 화학물질 취급량 및 취급시설의 정보, 법령 위반사실 등(이하 "화학물질 취급정보"이라 한다)을 공개할 수 있다. 다만, 위반사실과 관련하여 행정심판 또는 행정소송이 계류 중인 경우 등 대통령령으로 정하는 사유가 있는 경우에는 그러하지 아니하다. &lt;개정 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 또는 제2항에 따른 정보공개의 대상자가 제1항에 따른 조사 결과 또는 제2항에 따른 화학물질 취급정보를 비공개하기를 원하는 경우에는 환경부장관에게 환경부령으로 정하는 바에 따라 공개 여부에 관한 심의를 청구할 수 있다. 이 경우 제52조제1항 본문에 따른 자료의 보호를 요청한 것으로 본다. &lt;신설 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지에 따른 화학물질 취급정보에 대한 공개 여부를 심의하기 위하여 관리위원회에 화학물질정보공개심의위원회를 둔다. &lt;개정 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 화학물질정보공개심의위원회의 심의를 거친 화학물질 취급정보의 공개대상자에게 서면으로 통지하여 소명의 기회를 부여하여야 한다. &lt;개정 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항 및 제2항에 따른 공개는 관보에 게재하거나 인터넷 홈페이지에 게시하는 방법에 따른다. &lt;개정 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제1항부터 제5항까지의 규정에 따른 조사결과 및 정보의 공개와 관련한 기준, 공개절차 및 화학물질정보공개심의위원회의 구성ㆍ운영 등에 필요한 사항은 환경부령으로 정한다. &lt;개정 2017.11.28&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질을 취급하는 자는 다음 각 호 어느 하나에 해당하는 경우 해당 유해화학물질에 적합한 개인보호장구를 착용하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 개인보호장구의 구체적 종류 및 기준 등은 해당 유해화학물질의 특성에 따라 환경부장관이 고시한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질을 취급하는 자가 유해화학물질을 환경부령으로 정하는 일정량을 초과하여 진열ㆍ보관하고자 하는 경우에는 사전에 진열ㆍ보관계획서를 작성하여 환경부장관의 확인을 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에도 불구하고 유해화학물질을 취급하는 자가 유해화학물질의 보관ㆍ저장 시설을 보유하지 아니한 경우에는 진열하거나 보관할 수 없다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 유해화학물질을 운반하는 자가 1회에 환경부령으로 정하는 일정량을 초과하여 운반하고자 하는 경우에는 환경부령으로 정하는 바에 따라 사전에 해당 유해화학물질의 운반자, 운반시간, 운반경로ㆍ노선 등을 내용으로 하는 운반계획서를 작성하여 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항 및 제2항에 따른 계획서의 작성방법, 확인통보 등에 관한 구체적인 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질을 취급하는 자는 해당 유해화학물질의 용기나 포장에 다음 각 호의 사항이 포함되어 있는 유해화학물질에 관한 표시를 하여야 한다. 제조하거나 수입된 유해화학물질을 소량으로 나누어 판매하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질을 취급하는 자는 유해화학물질 취급시설과 취급현장, 유해화학물질을 보관ㆍ저장 또는 진열하는 장소, 유해화학물질 운반차량에 제1항에 따른 유해화학물질에 관한 표시를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 유해화학물질 이외의 화학물질에 대한 안전관리를 위하여 필요하다고 인정하면 그 물질을 취급하는 자에게 물질별로 적절한 표시를 하도록 권고할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 유해화학물질의 표시대상 및 표시방법 등에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질로 인하여 사람의 건강이나 환경에 중대한 위해가 발생하거나 발생할 우려가 있다고 판단하는 경우에는 유해화학물질의 제조, 수입, 판매, 보관ㆍ저장, 운반 또는 사용의 중지를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 제1항에 따라 유해화학물질의 제조ㆍ수입 등의 중지를 명하는 경우에는 이해관계인의 의견을 들어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제1항 및 제2항에 따라 사업자가 유해화학물질의 제조ㆍ수입 등을 중지한 경우에는 관계 행정기관의 장에게 통보하며 일반 국민에게 공표하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 사업자는 제1항에 따른 중지조치에 대하여 이의가 있는 경우에는 대통령령으로 정하는 바에 따라 환경부장관에게 해당 중지의 전부 또는 일부의 해제를 요청할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 제1항에 따라 제조ㆍ수입 등을 중지한 유해화학물질이 사람의 건강이나 환경에 위해를 미칠 우려가 없어졌다고 인정하는 경우 해당 중지의 전부 또는 일부를 지체 없이 해제하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 누구든지 금지물질을 취급하여서는 아니 된다. 다만, 금지물질에 해당하는 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 제조ㆍ수입ㆍ판매하려는 자가 환경부령으로 정하는 바에 따라 환경부장관의 허가를 받은 경우는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항 단서에 따라 금지물질 취급의 허가를 받은 자는 허가받은 사항 중 환경부령으로 정하는 사항을 변경하려면 환경부령으로 정하는 바에 따라 변경허가를 받거나 변경신고를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제1항 단서에 따라 허가를 하는 경우 화학사고 예방조치계획서 제출 등 해당 금지물질의 적절한 관리에 필요한 조건을 붙일 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 누구든지 제한물질을 사용이 제한된 용도로 취급하여서는 아니 된다. &lt;신설 2018.6.12&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 허가물질을 제조ㆍ수입ㆍ사용하려는 자는 다음 각 호의 자료를 제출하여 미리 환경부장관의 허가를 받아야 한다. 다만, 「화학물질의 등록 및 평가 등에 관한 법률」 제25조에 따른 허가유예기간에는 그러하지 아니한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 화학물질에 대하여는 제1항을 적용하지 아니한다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 허가를 받으려는 자는 환경부령으로 정하는 바에 따라 허가신청을 하여야 한다. 다만, 동일한 허가물질을 제조ㆍ수입ㆍ사용하려는 자는 허가물질의 용도가 동일한 경우에 한정하여 공동으로 허가신청을 할 수 있다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 제3항에 따라 허가신청을 받은 날부터 환경부령으로 정한 기간 내에 제1항에 따라 제출된 자료를 검토하여 다음 각 호의 요건을 충족하는 경우에 허가 여부를 결정하여 신청인에게 통지하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 제4항에 따라 허가를 통지하는 경우 허가번호, 허가물질의 용도와 제조ㆍ수입ㆍ사용의 한정기간 등의 조건을 부여하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제5항에 따른 허가물질의 제조ㆍ수입ㆍ사용의 한정기간을 부여받은 자는 그 기간 내에 환경부령으로 정하는 바에 따라 다시 허가를 받아야 한다. 이 경우 허가 여부 결정 및 통지 등에 관하여는 제4항 및 제5항을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 환경부장관은 다음 각 호의 어느 하나에 해당하는 경우에는 허가를 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 허가를 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 제1항에 따른 자료의 세부내용, 제4항에 따른 허가 여부 결정 및 통지 등 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제한물질을 수입하려는 자는 해당 제한물질의 용도가 명확하고 적정한 관리가 가능한 경우에 한정하여 환경부령으로 정하는 바에 따라 환경부장관의 허가를 받아야 한다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유독물질을 수입하려는 자는 환경부령으로 정하는 바에 따라 유독물질의 종류와 용도 등을 환경부장관에게 신고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항에도 불구하고 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 사용하기 위하여 수입하려는 경우 등 대통령령으로 정하는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 허가를 받거나 제2항에 따라 신고한 사항을 변경하는 경우에는 환경부령으로 정하는 바에 따라 변경허가를 받거나 변경신고를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제한물질(취급이 제한된 용도에 한정한다) 또는 금지물질을 수출하려는 자는 제2항제4호에 따른 수출통보서에 포함되어야 하는 정보에 관한 자료를 갖추어 환경부령으로 정하는 바에 따라 매년 환경부장관의 승인을 받아야 한다. 환경부령으로 정하는 중요한 사항이 변경되는 경우에도 또한 같다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 산업통상자원부장관과 협의하여 다음 각 호의 사항을 고시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항제1호 및 제3호에 따른 화학물질을 수출하려는 자는 제2항제2호의 준수사항을 지켜야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 누구든지 흥분ㆍ환각 또는 마취의 작용을 일으키는 화학물질로서 대통령령으로 정하는 물질(이하 "환각물질"이라 한다)을 섭취 또는 흡입하거나 이러한 목적으로 소지하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 누구든지 환각물질을 섭취하거나 흡입하려는 사람에게 그 사실을 알면서도 이를 판매하거나 제공하여서는 아니 된다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 취급시설을 설치ㆍ운영하려는 자는 사전에 화학사고 발생으로 사업장 주변 지역의 사람이나 환경 등에 미치는 영향을 평가하고 그 피해를 최소화하기 위한 화학사고예방관리계획서(이하 "화학사고예방관리계획서"라 한다)를 작성하여 환경부장관에게 제출하여야 한다. 다만, 다음 각 호의 어느 하나에 해당하는 유해화학물질 취급시설을 설치ㆍ운영하려는 자는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 화학사고예방관리계획서에 포함되어야 하는 내용은 다음 각 호의 내용을 포함하여 환경부령으로 정한다. 이 경우 취급하는 유해화학물질의 유해성 및 취급수량 등을 고려하여 화학사고예방관리계획서에 포함되어야 하는 내용을 달리 정할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 화학사고예방관리계획서를 제출한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 환경부령으로 정하는 바에 따라 변경된 화학사고예방관리계획서를 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 취급하는 유해화학물질의 유해성 및 취급수량 등을 고려하여 환경부령으로 정하는 기준 이상의 유해화학물질 취급시설(이하 "주요취급시설"이라 한다)을 설치ㆍ운영하는 자는 5년마다 화학사고예방관리계획서를 환경부령으로 정하는 바에 따라 작성하여 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 제1항, 제3항 또는 제4항에 따라 제출된 화학사고예방관리계획서(변경된 화학사고예방관리계획서를 포함한다)를 환경부령으로 정하는 바에 따라 검토한 후 이를 제출한 자에게 해당 유해화학물질 취급시설의 위험도 및 적합 여부를 통보하여야 한다. 이 경우 적합통보를 받은 자는 해당 화학사고예방관리계획서를 사업장 내에 비치하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 환경부장관은 제5항에 따른 적합 여부를 결정할 때 유해화학물질 취급시설의 사고위험성 등을 고려하여 환경부령으로 정하는 시설에 대하여 현장조사를 실시할 수 있다. 이 경우 해당 유해화학물질 취급시설에 대한 화학사고예방관리계획서를 제출한 자는 현장조사에 성실히 협조하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 환경부장관은 제5항 및 제6항에 따라 화학사고예방관리계획서를 검토한 결과 이를 수정ㆍ보완할 필요가 있는 경우에는 해당 화학사고예방관리계획서를 제출한 자에게 수정ㆍ보완을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 화학사고예방관리계획서를 수정ㆍ보완하여 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 환경부장관은 제5항에 따른 검토를 위하여 필요하다고 인정하는 경우에는 해당 지방자치단체의 장에게 협의를 요청할 수 있다. 이 경우 협의를 요청받은 지방자치단체의 장은 화학사고예방관리계획서를 검토한 후 그 검토의견을 환경부장관에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑨ 화학사고예방관리계획서의 작성 내용ㆍ방법과 제출 시기ㆍ방법, 현장조사 등에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제23조에 따라 화학사고예방관리계획서를 제출하여 유해화학물질 취급시설을 설치ㆍ운영하는 자는 화학사고예방관리계획서를 성실히 이행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 주요취급시설에 대하여 화학사고예방관리계획서의 이행 여부를 정기적으로 점검하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제2항에 따른 점검 결과 주요취급시설 등을 개선ㆍ보완할 필요가 있다고 인정하는 경우에는 주요취급시설을 설치ㆍ운영하는 자에게 시정조치나 그 밖에 필요한 조치를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제2항에 따른 점검 방법ㆍ주기 및 제3항에 따른 조치 등에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 주요취급시설을 설치ㆍ운영하려는 자로서 제23조제5항에 따라 적합통보를 받은 자는 취급사업장 인근 지역주민에게 다음 각 호의 정보를 알기 쉽게 명시하여 고지하여야 한다. 이 경우 고지는 제2항에 따른 방법으로 매년 1회 이상 실시하여야 하며, 고지된 사항이 변경된 때에는 그 사유가 발생한 날부터 1개월 이내에 변경사항에 대하여 고지하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 고지는 같은 항 각 호의 정보를 제48조제1항에 따른 화학물질 종합정보시스템에 등록하는 방법으로 하여야 한다. 이 경우 서면통지, 개별설명 또는 집합전달 등의 방법 중 하나 이상의 방법을 함께 사용하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 지방자치단체의 장은 제1항에 따른 고지가 원활히 이행될 수 있도록 필요한 지원을 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 지역주민에게 고지하여야 하는 자는 제2항의 방법에 따른 고지 외에도 지역주민의 요청이 있을 경우 제1항 각 호의 정보를 지역주민에게 개별적으로 통지하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항부터 제4항까지에 따른 화학사고예방관리계획서의 지역사회 고지에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 지방자치단체의 장은 관할 지역에서 화학사고가 발생하는 경우에 대비하기 위하여 다음 각 호의 사항이 포함된 계획(이하 "지역화학사고대응계획"이라 한다)을 수립하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 지방자치단체의 장이 관할 지역의 지역화학사고대응계획을 수립하거나 관할 소방관서의 장 등 화학사고 대응 관계 기관의 장이 화학사고에 대비ㆍ대응하기 위한 경우 필요한 범위에서 관련 자료를 지방자치단체의 장 등에게 제공할 수 있다. 이 경우 자료를 제공받은 지방자치단체의 장 등은 「공공기관의 정보공개에 관한 법률」 및 그 밖의 다른 법률에 따른 정보공개절차에 의하지 아니하고 이를 공개하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 지역화학사고대응계획의 수립 및 제2항에 따른 자료 제공의 범위 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 취급시설은 환경부령으로 정하는 배치ㆍ설치 및 관리 기준 등에 따라 설치ㆍ운영되어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질 취급시설의 설치를 마친 자는 환경부령으로 정하는 검사기관에서 검사를 받고 그 결과를 환경부장관에게 제출하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 유해화학물질 취급시설을 설치ㆍ운영하는 자는 취급시설별로 환경부령으로 정하는 기간마다 제2항에 따른 검사기관에서 정기검사 또는 수시검사를 받고 그 결과를 환경부장관에게 제출하여야 한다. 다만, 제5항에 따라 안전진단을 실시하고 안전진단결과보고서를 제출한 자에 대하여는 환경부령으로 정하는 기간 동안 정기검사를 면제할 수 있다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제3항 본문에도 불구하고 다음 각 호의 어느 하나에 해당하는 유해화학물질 취급시설을 설치ㆍ운영하는 자에 대해서는 정기검사 및 수시검사를 면제한다. &lt;신설 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 유해화학물질 취급시설의 설치를 마친 자 또는 유해화학물질 취급시설을 설치ㆍ운영하는 자는 다음 각 호의 어느 하나에 해당하는 경우에는 제2항에 따른 검사기관에 의한 안전진단을 실시하고 취급시설의 안전 상태를 입증하기 위한 안전진단결과보고서를 환경부장관에게 제출하여야 한다. &lt;개정 2020.3.31, 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제2항 및 제3항에 따른 검사 또는 제5항에 따른 안전진단 결과 적합 판정을 받지 아니한 유해화학물질 취급시설은 사용할 수 없다. 다만, 검사 또는 안전진단을 위하여 그 시설을 사용하는 경우에는 그러하지 아니하다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제2항 및 제3항에 따른 검사의 절차ㆍ기준 및 검사기관의 관리기준, 제5항에 따른 안전진단의 세부적인 방법 등에 관하여 필요한 사항은 환경부령으로 정한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질 취급시설이 다음 각 호의 어느 하나에 해당하는 경우에는 해당 시설을 설치ㆍ운영하는 자에게 환경부령으로 정하는 바에 따라 기간을 정하여 그 시설의 개선을 명할 수 있다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 제1항에 따른 개선명령을 받은 자가 기간 내에 이를 이행하지 아니하거나 그 이행이 불가능하다고 판단되면 해당 시설의 가동중지를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 취급시설을 설치ㆍ운영하는 자(가동중단 또는 휴업 중인 자를 포함한다)는 주 1회 이상 해당 유해화학물질의 취급시설 및 장비 등에 대하여 환경부령으로 정하는 바에 따라 정기적으로 점검을 실시하고 그 결과를 5년간 기록ㆍ비치하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 점검의 내용은 다음 각 호와 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 영업을 하려는 자는 환경부령으로 정하는 바에 따라 사전에 다음 각 호의 서류를 제출하여야 한다. &lt;개정 2016.5.29, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 서류를 제출한 자는 환경부령으로 정하는 기준에 맞는 유해화학물질별 취급시설ㆍ장비 및 기술인력을 갖추어 업종별로 환경부장관의 허가를 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 서류를 제출한 자는 환경부령으로 정하는 기간 내에 환경부장관의 허가를 받아야 한다. 이 경우 환경부장관은 해당 유해화학물질 취급에 적정한 관리를 위하여 필요한 조건을 붙일 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 유해화학물질 영업을 하려는 자가 제1항에 따른 서류제출과 제2항에 따른 취급시설ㆍ장비 및 기술인력 등의 요건을 갖추어 허가신청을 할 때에는 지체 없이 허가하여야 한다. 다만, 환경부령으로 정하는 중요 사항이 변경된 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제4항에 따른 유해화학물질 영업허가를 받은 자가 허가받은 사항 중 환경부령으로 정하는 중요 사항을 변경하려면 변경허가를 받아야 하고, 그 밖의 사항을 변경하려면 변경신고를 하여야 한다. 이 경우 변경허가나 변경신고의 절차는 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 환경부장관은 제5항 전단에 따른 변경신고를 받은 경우 그 내용을 검토하여 이 법에 적합하면 신고를 수리하여야 한다. &lt;신설 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 환경부장관은 제3항에 따른 허가 또는 제5항에 따른 변경허가를 하거나 같은 항에 따른 변경신고를 수리한 경우에는 그 사항을 환경부령으로 정하는 바에 따라 유해화학물질 취급시설의 소재지를 관할하는 소방관서의 장에게 알려야 한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 환경부장관은 유해화학물질 취급시설 설치현황을 환경부령으로 정하는 바에 따라 소방관서와 지방자치단체 등 화학사고 대응 기관에 제공하여야 한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자가 「전자상거래 등에서의 소비자보호에 관한 법률」에 따른 통신판매를 하는 경우 구매자에 대한 실명ㆍ연령 확인 및 본인 인증을 거쳐야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 구매자에 대한 실명ㆍ연령 확인 및 본인 인증에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제29조제2호에 따라 영업허가를 면제 받아 시약을 판매하는 자는 구매자에게 다음 각 호의 사항을 알려주어야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 고지의 방법 등에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제29조에도 불구하고 유해화학물질에 해당하는 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 판매하는 영업을 하려는 자는 환경부장관에게 신고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 신고를 한 자가 신고한 사항 중 환경부령으로 정하는 중요 사항을 변경하려는 경우에는 변경신고를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제1항 및 제2항에 따라 신고를 받으면 그 신고 내용을 확인한 후 지체 없이 신고확인증을 신고인에게 발급하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항부터 제3항까지의 규정에 따른 신고, 변경신고의 방법 및 절차, 신고확인증에 관하여 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제27조에 따른 유해화학물질 영업을 하는 자(이하 "유해화학물질 영업자"라 한다)가 해당 유해화학물질의 취급을 도급(하도급을 포함한다. 이하 같다)하는 경우 해당 수급인(하수급인을 포함한다. 이하 같다)의 명칭, 도급의 사유, 도급계획 및 화학사고 안전관리계획 등에 관한 사항을 환경부령으로 정하는 바에 따라 환경부장관에게 신고하여야 한다. 신고한 사항 중 환경부령으로 정하는 중요한 사항을 변경하려는 경우에도 또한 같다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 제1항에 따른 신고 또는 변경신고를 받은 경우 그 내용을 검토하여 이 법에 적합하면 신고 또는 변경신고를 수리하여야 한다. &lt;신설 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항에 따라 유해화학물질 취급을 도급받은 수급인이 도급받은 업무와 관련하여 이 법을 위반한 경우 이 법 위반에 따른 효과는 도급인에게도 미친다. 다만, 제7장 벌칙(제57조부터 제64조까지)을 적용할 때에는 그러하지 아니하다. &lt;개정 2020.3.31, 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 도급인은 환경부령으로 정한 능력과 기준을 갖춘 자에게만 해당 유해화학물질의 취급을 도급하여야 한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 도급인이 유해화학물질의 취급을 도급한 경우에는 해당 수급인을 관리ㆍ감독하여야 할 의무가 있고, 수급인에게 무리한 취급시설의 운영 등 환경부령으로 정한 사항을 요구하여서는 아니 된다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 영업자는 유해화학물질 취급시설의 안전 확보와 유해화학물질의 위해 방지에 관한 직무를 수행하게 하기 위하여 사업 개시 전에 해당 영업자의 유해화학물질 취급량 및 종사자수 등 환경부령으로 정하는 기준에 따라 유해화학물질관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질 영업자가 유해화학물질 취급시설 관리를 전문으로 하는 자에게 위탁하여 관리하게 할 경우에는 그 유해화학물질 취급시설의 관리업무를 위탁받은 자(이하 "수탁관리자"라 한다)가 제1항에 따른 유해화학물질관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항이나 제2항에 따라 유해화학물질관리자를 선임한 자는 유해화학물질관리자를 선임 또는 해임하거나 유해화학물질관리자가 퇴직한 경우에는 지체 없이 이를 환경부장관에게 신고하고, 해임 또는 퇴직한 날부터 30일 이내에 다른 유해화학물질관리자를 선임하여야 한다. 다만, 그 기간 내에 선임할 수 없으면 환경부장관의 승인을 받아 그 기간을 연장할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항이나 제2항에 따라 유해화학물질관리자를 선임한 자는 유해화학물질관리자가 여행 또는 질병, 그 밖의 사유로 인하여 일시적으로 그 직무를 수행할 수 없으면 대리자를 지정하여 그 직무를 대행하게 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 유해화학물질관리자는 유해화학물질 취급시설 종사자에게 해당 유해화학물질에 대한 안전관리 정보를 제공하고 수탁관리자 및 취급시설 종사자가 이 법 또는 이 법에 따른 명령을 위반하지 아니하도록 지도ㆍ감독하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 유해화학물질 영업자, 수탁관리자 및 종사자는 유해화학물질관리자의 안전에 관한 의견을 존중하고 권고에 따라야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 유해화학물질관리자의 종류ㆍ자격ㆍ인원ㆍ직무범위 및 유해화학물질관리자의 대리자 대행 기간과 그 밖에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제28조제2항에 따른 유해화학물질 취급시설의 기술인력, 제32조에 따른 유해화학물질관리자, 그 밖에 대통령령으로 정하는 유해화학물질 취급 담당자는 환경부령으로 정하는 교육기관이 실시하는 유해화학물질 안전교육(이하 "유해화학물질 안전교육"이라 한다)을 받아야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질 영업자는 유해화학물질 안전교육을 받아야 할 사람을 고용한 때에는 그 해당자에게 유해화학물질 안전교육을 받게 하여야 한다. 이 경우 유해화학물질 영업자는 교육에 드는 경비를 부담하여야 한다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 유해화학물질 영업자는 해당 사업장의 모든 종사자에 대하여 환경부령으로 정하는 바에 따라 정기적으로 유해화학물질 안전교육을 실시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 영업자가 환경부령으로 정하는 바에 따라 사업장 내 유해화학물질의 취급을 중단하거나 취급방식을 변경하려는 경우 미리 환경부령으로 정하는 바에 따라 조치하여야 한다. 다만, 폐업의 경우 미리 사업장의 잔여 유해화학물질을 처분하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질 영업자가 그 영업을 폐업하거나 휴업하려는 경우 및 환경부령으로 정하는 일정 기간 이상 유해화학물질 취급시설을 가동하지 아니하는 경우에는 제1항에 따른 처분을 한 이후에 환경부령으로 정하는 바에 따라 환경부장관에게 신고하여야 한다. &lt;개정 2016.12.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제2항에 따른 폐업 또는 휴업 신고의 내용을 검토한 결과 사람의 건강이나 환경을 해칠 우려가 있다고 인정하면 해당 유해화학물질 영업자에게 폐업 또는 휴업 전에 해당 유해화학물질의 위해성 방지를 위하여 필요한 조치를 취할 것을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하는 경우에는 기간을 정하여 개선을 명할 수 있다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 개선명령의 세부적인 기준은 위반 횟수, 사람의 건강이나 환경에 미치는 영향의 정도, 유해화학물질 영업자의 고의ㆍ과실 등을 고려하여 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하면 그 허가를 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하면 그 영업허가를 취소하거나 6개월 이내의 기간을 정하여 영업의 전부 또는 일부의 정지를 명할 수 있다. &lt;개정 2016.1.27, 2017.11.28, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항에 따른 행정처분의 기준에 관한 사항은 위반횟수, 사람의 건강이나 환경에 미치는 영향의 정도 등을 고려하여 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질 영업자에 대하여 제35조제2항에 따라 영업정지를 명하여야 하는 경우에는 대통령령으로 정하는 바에 따라 영업정지 처분을 갈음하여 해당 사업장 매출액의 100분의 5 이하의 과징금을 부과할 수 있다. 다만, 단일 사업장을 보유하고 있는 기업의 경우에는 매출액의 1천분의 25를 초과하지 못한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 과징금은 위반행위의 종류, 사업규모, 위반횟수 등을 참작하여 대통령령으로 정하는 기준에 따라 과징금을 부과하되, 그 금액의 2분의 1의 범위에서 가중(加重)하거나 감경(減輕)할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제1항에 따른 과징금을 부과하기 위하여 필요한 경우에는 다음 각 호의 사항을 적은 문서로 관할 세무관서의 장에게 과세정보 제공을 요청할 수 있다. &lt;신설 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따른 과징금을 내야 하는 자가 납부기한까지 내지 아니하면 환경부장관은 대통령령으로 정하는 바에 따라 제1항에 따른 과징금 부과처분을 취소하고 영업정지 처분을 하거나 국세 체납처분의 예에 따라 징수한다. 다만, 제34조에 따른 폐업 또는 휴업으로 제35조제2항에 따른 영업정지 처분을 할 수 없는 경우에는 국세 체납처분의 예에 따라 징수한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항에 따라 환경부장관이 부과ㆍ징수한 과징금은 「환경정책기본법」에 따른 환경개선특별회계의 세입으로 한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 유해화학물질 영업자가 사망하거나 그 영업을 양도한 때 또는 법인이 합병한 때에는 그 상속인ㆍ양수인 또는 합병 후 존속하는 법인이나 합병에 따라 설립되는 법인은 허가에 따른 유해화학물질 영업자의 권리ㆍ의무를 승계한다. 이 경우 그 상속인이 제30조제1호부터 제3호까지의 규정 중 어느 하나에 해당하는 경우에는 90일 이내에 그 사업을 다른 사람에게 양도할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 절차에 따라 유해화학물질 취급시설을 인수한 자는 그 영업자의 지위를 승계한다. 이 경우 종전의 영업자에 대한 영업 허가ㆍ등록 또는 그가 한 신고는 그 효력을 잃는다. &lt;개정 2016.12.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 유해화학물질 영업자가 그 영업을 양도하거나 사망한 때 또는 법인을 합병한 때에는 종전의 유해화학물질 영업자에 대하여 제35조 및 제36조에 따른 행정처분의 효과는 그 처분기간이 끝난 날부터 1년간 양수인ㆍ상속인 또는 합병 후 신설되거나 존속하는 법인에 승계되며, 행정처분의 절차가 진행 중인 때에는 양수인ㆍ상속인 또는 합병 후 신설되거나 존속하는 법인에 행정처분의 절차를 계속 진행할 수 있다. 다만, 양수인 또는 합병 후 신설되거나 존속하는 법인이 그 처분이나 위반의 사실을 양수 또는 합병한 때에 알지 못하였음을 증명하는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항에 따라 유해화학물질 영업자의 권리ㆍ의무를 승계한 자는 환경부령으로 정하는 바에 따라 승계한 날부터 30일 이내에 이를 환경부장관에게 신고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 같은 부지나 건축물에 사업장이 설치되어 있는 둘 이상의 유해화학물질 영업자는 환경부령으로 정하는 바에 따라 환경부장관의 승인을 받아 유해화학물질 취급시설이나 유해화학물질관리자를 공동으로 활용할 수 있다. 이 경우 각 유해화학물질 영업자별로 유해화학물질 취급시설이나 유해화학물질관리자를 갖춘 것으로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 유해화학물질 영업자는 제1항에 따라 승인을 받은 사항 중 환경부령으로 정하는 중요한 사항을 변경하려면 환경부령으로 정하는 바에 따라 신고를 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 화학사고가 발생하거나 발생할 우려가 있으면 해당 화학물질을 취급하는 자는 즉시 화학사고예방관리계획서에 따라 위해방제에 필요한 응급조치를 하여야 한다. 다만, 화학사고의 중대성ㆍ시급성이 인정되는 경우에는 취급시설의 가동을 중단하여야 한다. &lt;개정 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 화학사고가 발생하면 해당 화학물질을 취급하는 자는 즉시 관할 지방자치단체, 지방환경관서, 국가경찰관서, 소방관서 또는 지방고용노동관서에 신고하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항에 따라 신고를 받은 기관의 장은 즉시 이를 환경부령으로 정하는 바에 따라 화학사고의 원인ㆍ규모 등을 환경부장관에게 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제2항에 따른 신고 또는 제3항에 따른 통보를 한 경우에는 「재난 및 안전관리 기본법」 제18조에 따른 신고 또는 통보를 각각 마친 것으로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 화학사고의 신속한 대응 및 상황 관리, 사고정보의 수집과 통보를 위하여 해당 화학사고 발생현장에 환경부령으로 정하는 요건을 갖춘 현장수습조정관을 파견할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 현장수습조정관의 역할은 다음과 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 화학사고가 발생한 지역을 관할하는 지방자치단체의 장(해당 지역에 소재하는 긴급구조기관 및 긴급구조지원기관을 포함한다)은 현장수습조정관이 화학사고 현장에서 원활히 업무를 수행할 수 있도록 적극 협조하여야 하고 주요한 사안을 결정ㆍ집행할 경우에는 현장수습조정관과 협의하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제44조에 따른 현장수습조정관은 같은 조 제2항 각 호에 따른 업무의 효율적인 수행을 위하여 필요하다고 인정되는 경우 해당 화학물질 취급시설에 대한 가동 중지를 명령(이하 "가동중지명령"이라 한다)할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 가동중지명령을 받은 사업자는 즉시 해당 화학물질 취급시설의 가동을 중지하여야 하고, 환경부장관이 그 가동중지명령을 해제할 때까지는 해당 화학물질 취급시설을 가동하여서는 아니 된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 가동중지명령과 가동중지명령 해제의 요건, 방법 및 절차 등에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 화학사고의 원인 규명, 사람의 건강이나 환경 피해의 최소화 및 복구 등을 위하여 필요한 경우 관계 기관의 장과 협의하여 다음 각 호의 사항에 대하여 영향조사(이하 "영향조사"라 한다)를 실시하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 영향조사를 수행하기 위하여 대통령령으로 정하는 바에 따라 제44조에 따른 현장수습조정관을 단장으로 하는 화학사고 조사단을 구성ㆍ운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 해당 화학사고의 원인이 되는 사업자에 대하여 환경부령으로 정하는 기한 내에 다음 각 호의 조치를 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 조치명령을 받은 자는 환경부령으로 정하는 바에 따라 이행계획서를 환경부장관에게 제출하여 제1항에 따른 조치명령을 이행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 제1항제1호에 따른 최소화 및 제거 조치를 결정하는 경우 화학물질의 유해성ㆍ위해성, 노출경로 등을 고려하여 우선순위를 정할 수 있다. &lt;개정 2020.5.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항제2호에 따른 복구조치의 기준은 「대기환경보전법」ㆍ「물환경보전법」ㆍ「토양환경보전법」에서 규정한 환경기준을 적용하고, 환경기준이 없는 경우에는 환경부장관이 별도로 정하는 지침을 따른다. &lt;개정 2017.1.17&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항 및 제2항에 따른 최소화ㆍ제거 조치, 복구조치 및 이행계획서의 작성방법에 관한 세부적인 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 화학사고 발생에 따른 현장 대응을 강화하기 위하여 산업단지 등 화학사고 발생 우려가 높은 지역을 대통령령으로 정하는 바에 따라 화학사고 특별관리지역(이하 "특별관리지역"이라 한다)으로 지정할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 특별관리지역을 지정하려는 경우 환경부장관은 그 지역을 관할하는 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 및 특별자치도지사와 협의하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 환경부장관은 특별관리지역 내에 화학물질을 취급하는 사업장에 대한 상시적인 관리ㆍ감독 및 화학사고 대응 등을 위하여 전담기관을 설치ㆍ운영할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 유해화학물질 취급시설 설치현황 등 화학물질의 안전관리, 화학사고 발생 이력(履歷) 및 화학사고 대비ㆍ대응 등과 관련된 정보를 수집ㆍ보급하기 위하여 화학물질 종합정보시스템을 구축ㆍ운영하여야 한다. &lt;개정 2015.1.20, 2018.12.24&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 제1항에 따른 화학물질 종합정보시스템에 의하여 확보된 화학물질의 안전관리 등과 관련된 정보를 대통령령으로 정하는 바에 따라 화학물질을 취급하는 자, 지방자치단체ㆍ관할 소방관서의 장 등 화학사고 대응 관계 기관 및 국민에게 제공하여야 한다. &lt;개정 2015.1.20, 2018.12.24&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항의 화학물질 종합정보시스템의 구축ㆍ운영 등에 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 다음 각 호에 해당하는 자에 대하여 각각 환경부령으로 정하는 바에 따라 필요한 보고를 명하거나 자료를 제출하게 하거나, 관계 공무원으로 하여금 해당 사업장 또는 시설에 출입하여 화학물질을 채취하게 하거나 관련 서류ㆍ시설 및 장비 등을 검사하게 할 수 있다. 이 경우 시험을 위하여 필요한 최소량의 화학물질 및 시료를 무상으로 수거하게 할 수 있다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 출입하거나 검사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자는 해당 화학물질의 취급과 관련된 사항을 5년간 환경부령으로 정하는 바에 따라 기록ㆍ보존하여야 한다. &lt;개정 2016.12.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 경우 전산 입력 자료가 있으면 해당 서류를 갈음하여 전산 입력 자료를 보존할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 이 법에 따라 자료를 제출한 자가 비밀보호를 위하여 화학물질의 성분 등에 대한 자료 보호를 요청하면 대통령령으로 정하는 자료보호기간 동안 이를 공개하여서는 아니 된다. 다만, 다음 각 호의 어느 하나에 해당하는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 제1항 본문에 따라 보호를 요청한 자료가 같은 항 단서에 따른 자료보호 대상이 아닌 자료에 해당되면 보호를 요청한 자에게 이를 알려야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 그 밖에 자료보호 요청의 절차 등 필요한 사항은 환경부령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 화학물질을 제조, 수입, 판매, 보관ㆍ저장, 운반 또는 사용하는 영업을 하는 자는 화학물질의 적정한 관리, 기술개발, 그 밖에 영업의 건전한 발전을 도모하기 위하여 화학물질 관리에 관한 협회(이하 "협회"라 한다)를 설립할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 협회는 법인으로 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 협회는 정관을 작성하여 환경부장관의 인가를 받아야 한다. 이를 변경하려는 경우에도 또한 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 환경부장관은 협회의 운영이 법령에 위반되거나 정관에 위배된다고 인정하면 시정을 요구할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 환경부장관은 협회가 다음 각 호의 어느 하나에 해당하는 경우에는 인가를 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 인가를 취소하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 협회에 관하여는 이 법에서 규정한 것 외에는 「민법」 중 사단법인에 관한 규정을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 환경부장관은 이 법에 따른 권한의 일부를 대통령령으로 정하는 바에 따라 소속 기관의 장에게 위임할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 환경부장관은 이 법에 따른 업무의 일부를 대통령령으로 정하는 바에 따라 「한국환경산업기술원법」에 따른 한국환경산업기술원, 「한국환경공단법」에 따른 한국환경공단, 협회에 위탁할 수 있다. &lt;개정 2015.12.1&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자에게는 1천만원 이하의 과태료를 부과한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 환경부장관이 부과ㆍ징수한다.
-				</t>
+    <t>① 이 법은 다음 각 호의 어느 하나에 해당하는 화학물질에는 적용하지 아니한다.</t>
+  </si>
+  <si>
+    <t>② 제1항제13호에 해당하는 화학물질에 대하여는 제1항에도 불구하고 제4조부터 제23조까지(제6조제3항제1호부터 제5호까지, 제13조, 제16조, 제19조 및 제20조는 제외한다), 제23조의2, 제23조의3, 제26조, 제39조부터 제50조까지(제49조제1항제7호ㆍ제8호 및 제50조제1항제6호는 제외한다), 제52조, 제54조부터 제64조까지(제54조제8호부터 제13호까지, 제58조제4호ㆍ제5호, 제59조제7호부터 제9호까지, 제59조제11호, 제61조제4호, 제64조제1항제5호부터 제9호까지 및 제64조제2항제4호는 제외한다)를 적용한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항제2호부터 제13호까지의 규정에 따른 화학물질의 관리 및 화학사고 대응에 관하여 관계 법률에 다른 특별한 규정이 있는 경우를 제외하고는 제1항에도 불구하고 이 법에 따른다.</t>
+  </si>
+  <si>
+    <t>① 국가 및 지방자치단체는 화학물질의 유해성ㆍ위해성으로부터 국민건강과 환경에 미치는 영향을 늘 파악하고, 국민건강이나 환경상의 위해를 예방하기 위하여 필요한 시책을 수립ㆍ시행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 국가 및 지방자치단체는 화학물질의 관리를 위한 오염도 측정, 조사ㆍ연구, 기술개발, 전문인력 양성, 교육 및 홍보시책 등을 강구하여야 하고, 화학물질의 안전관리에 필요한 행정적ㆍ기술적ㆍ재정적 지원을 하여야 한다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>③ 국가는 화학물질 안전관리와 관련된 기술개발을 촉진하고 분야별 전문인력을 양성하기 위하여 다음 각 호의 사업을 실시하는 자에게 자금의 전부나 일부를 출연하거나 보조할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 중소기업의 화학물질 안전관리를 위하여 관계 중앙행정기관의 장과 협의를 거쳐 다음 각 호의 사항에 대한 행정적ㆍ기술적ㆍ재정적 지원방안을 마련하여 시행할 수 있다. &lt;신설 2016.1.27, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>① 화학물질을 취급하는 자는 화학물질로 인한 국민건강상 또는 환경상의 위해가 발생하지 아니하도록 적절한 시설ㆍ설비의 유지, 종업원의 교육, 기술개발 및 정보의 교환 등 필요한 조치를 하여야 하며, 화학물질의 적절한 관리를 위한 국가의 시책에 참여하고 협력하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 화학물질을 취급하는 자는 해당 화학물질의 안전한 관리에 관한 책임을 진다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해성ㆍ위해성이 있는 화학물질을 효율적으로 관리하기 위하여 5년마다 화학물질의 관리에 관한 기본계획(이하 "기본계획"이라 한다)을 수립하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 기본계획을 수립하는 경우 미리 관계 중앙행정기관의 장과 협의한 후 제7조에 따른 화학물질관리위원회의 심의를 거쳐야 한다. 기본계획을 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>③ 기본계획에는 다음 각 호의 사항이 포함되어야 한다.</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 기본계획을 수립하면 지체 없이 그 내용을 관계 중앙행정기관의 장 및 지방자치단체의 장에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 관계 중앙행정기관의 장 및 지방자치단체의 장은 기본계획에 따라 소관 사항에 속하는 시책을 수립ㆍ시행하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 기본계획의 수립 등 화학물질 관리와 관련한 중요 사항을 심의하기 위하여 환경부장관 소속으로 화학물질관리위원회(이하 "관리위원회"라 한다)를 둔다.</t>
+  </si>
+  <si>
+    <t>② 관리위원회는 위원장과 부위원장 각 1명을 포함한 30명 이내의 위원으로 구성한다.</t>
+  </si>
+  <si>
+    <t>③ 관리위원회 위원장은 화학물질 관리업무를 주관하는 환경부 소속 고위공무원단에 속하는 공무원 중에서 환경부장관이 지명하고, 부위원장은 위원 중에서 위원장이 임명하거나 위촉한다.</t>
+  </si>
+  <si>
+    <t>④ 관리위원회 위원은 화학ㆍ환경ㆍ보건 등 관련 분야의 학식과 경험이 풍부한 전문가와 화학물질 관련 업계의 대표 및 관련 분야의 업무를 담당하는 공무원 중에서 환경부장관이 임명하거나 위촉한다.</t>
+  </si>
+  <si>
+    <t>⑤ 관리위원회의 회의는 재적위원 과반수의 출석으로 개의(開議)하고, 출석위원 과반수의 찬성으로 의결한다.</t>
+  </si>
+  <si>
+    <t>⑥ 관리위원회의 심의사항을 전문적으로 연구ㆍ검토하기 위하여 필요한 경우에는 관리위원회의 위원과 관련 분야의 전문가로 구성되는 분야별 전문위원회를 둘 수 있다.</t>
+  </si>
+  <si>
+    <t>⑦ 그 밖에 관리위원회 및 분야별 전문위원회의 구성ㆍ운영 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 화학물질을 제조하거나 수입하려는 자(수입을 수입 대행자에게 위탁한 경우에는 그 위탁한 자를 말한다. 이하 같다)는 환경부령으로 정하는 바에 따라 해당 화학물질이나 그 성분이 다음 각 호의 어느 하나에 해당하는지를 확인(이하 "화학물질확인"이라 한다)하고, 그 내용을 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에도 불구하고 특정한 고체 형태로 일정한 기능을 발휘하는 제품에 들어있어 그 사용 과정에서 유출되지 아니하는 등 환경부장관이 정하여 고시하는 기준에 해당하는 경우에는 그러하지 아니하다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 화학물질을 제조하거나 수입하려는 자는 화학물질확인을 위하여 필요하다고 인정하면 환경부령으로 정하는 자료를 첨부하여 환경부장관에게 해당 화학물질이나 그 성분이 제1항 각 호의 어느 하나에 해당하는지에 관한 증명을 신청할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 2년마다 화학물질의 취급과 관련된 취급현황, 취급시설 등에 관한 통계조사(이하 "화학물질 통계조사"라 한다)를 실시하여야 한다. 이 경우 통계의 조사ㆍ작성에 관하여는 「통계법」의 관계 규정을 준용한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 화학물질 통계조사의 효율적 수립ㆍ시행을 위하여 서면조사 또는 현장조사를 실시하거나 정보체계를 구축ㆍ운영하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 화학물질 통계조사 및 제2항에 따른 정보체계의 구축ㆍ운영을 위하여 필요한 경우에는 관계 중앙행정기관의 장, 지방자치단체의 장, 공공기관(「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관을 말한다)의 장, 관계 기관 및 단체의 장 등에게 필요한 자료 및 정보의 제공을 요청할 수 있다. 이 경우 자료 및 정보의 제공을 요구받은 자는 정당한 사유가 없으면 이에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 화학물질을 취급하는 자에게 화학물질 통계조사에 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장 등에 출입하여 화학물질과 관련된 현황을 조사하게 할 수 있다. 이 경우 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 화학물질 통계조사의 대상, 내용, 방법 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 화학물질 배출로부터 국민의 건강 및 환경을 보호하고 사업장으로 하여금 자발적인 화학물질 배출의 저감을 유도하기 위하여 매년 대통령령으로 정하는 화학물질을 취급하는 사업장에 대하여 해당 화학물질을 취급하는 과정에서 배출되는 화학물질 현황 등의 조사(이하 "화학물질 배출량조사"라 한다)를 실시하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 화학물질 배출량조사를 하는 경우 환경부령으로 정하는 바에 따라 화학물질을 취급하는 자에게 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장에 출입하여 해당 화학물질 배출량조사를 하게 할 수 있다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 화학물질 배출량조사를 하려는 때에는 관계 중앙행정기관의 장, 지방자치단체의 장, 공공기관(「공공기관의 운영에 관한 법률」 제4조에 따른 공공기관을 말한다)의 장, 관계 기관 및 단체의 장 등에게 기관별 조사 결과와 필요한 자료를 제출하도록 요청할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제2항에 따라 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 화학물질 배출량조사의 대상, 내용, 방법 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제11조제1항에 따른 화학물질 배출량조사 대상 사업장 중 유해성이 높은 화학물질을 연간 일정량 이상 배출하는 등 환경부령으로 정하는 사업장은 5년마다 화학물질 배출저감계획서(이하 "배출저감계획서"라 한다)를 작성하여 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 배출저감계획서를 제출받으면 환경부령으로 정하는 바에 따라 이를 검토한 후 제출한 자에게 적합 여부를 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 배출저감계획서를 검토한 결과 수정ㆍ보완할 필요가 있는 경우에는 제출한 자에게 수정ㆍ보완을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 배출저감계획서를 수정ㆍ보완하여 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 배출저감계획서를 작성ㆍ제출한 자 중 그 일부 내용을 기업의 영업비밀로 보호받고자 하는 자는 비공개 요청을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 배출저감계획서를 환경부령으로 정하는 바에 따라 사업장 소재지의 지방자치단체의 장에게 제공하여야 하며, 지방자치단체의 장은 제공받은 배출저감계획서를 환경부령으로 정하는 바에 따라 공개할 수 있다. 다만, 제4항에 따라 비공개 요청을 받아 환경부장관이 기업의 영업비밀과 관련되어 배출저감계획서의 일부 내용을 공개하지 아니할 필요가 있다고 인정하는 경우에는 그 내용을 제외하고 제공하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 환경부장관 또는 지방자치단체의 장은 배출저감계획서를 작성ㆍ제출한 자에게 필요한 자료를 제출하도록 명하거나 관계 공무원으로 하여금 해당 사업장에 출입하여 배출저감과 관련된 현황을 조사하게 할 수 있다. 이 경우 출입ㆍ조사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>⑦ 환경부장관과 사업장 소재지의 지방자치단체의 장은 사업장의 배출저감계획서 이행에 대하여 기술적ㆍ행정적ㆍ재정적 지원을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑧ 배출저감계획서 작성내용ㆍ제출시기, 배출저감계획서의 공개 관련 영업비밀 보호신청 범위ㆍ절차 및 영업비밀 심의 기준ㆍ절차 등은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 화학물질 통계조사와 화학물질 배출량조사를 완료한 때에는 사업장별로 그 결과를 지체 없이 공개하여야 한다. 다만, 다음 각 호의 어느 하나에 해당하는 경우에는 그러하지 아니한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 화학물질을 취급하는 자가 이 법에 따른 규정을 위반하였거나 환경부장관의 명령을 이행하지 아니한 경우 해당 화학물질을 취급하는 자의 인적사항, 화학물질 취급량 및 취급시설의 정보, 법령 위반사실 등(이하 "화학물질 취급정보"이라 한다)을 공개할 수 있다. 다만, 위반사실과 관련하여 행정심판 또는 행정소송이 계류 중인 경우 등 대통령령으로 정하는 사유가 있는 경우에는 그러하지 아니하다. &lt;개정 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항 또는 제2항에 따른 정보공개의 대상자가 제1항에 따른 조사 결과 또는 제2항에 따른 화학물질 취급정보를 비공개하기를 원하는 경우에는 환경부장관에게 환경부령으로 정하는 바에 따라 공개 여부에 관한 심의를 청구할 수 있다. 이 경우 제52조제1항 본문에 따른 자료의 보호를 요청한 것으로 본다. &lt;신설 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지에 따른 화학물질 취급정보에 대한 공개 여부를 심의하기 위하여 관리위원회에 화학물질정보공개심의위원회를 둔다. &lt;개정 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 화학물질정보공개심의위원회의 심의를 거친 화학물질 취급정보의 공개대상자에게 서면으로 통지하여 소명의 기회를 부여하여야 한다. &lt;개정 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항 및 제2항에 따른 공개는 관보에 게재하거나 인터넷 홈페이지에 게시하는 방법에 따른다. &lt;개정 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 제1항부터 제5항까지의 규정에 따른 조사결과 및 정보의 공개와 관련한 기준, 공개절차 및 화학물질정보공개심의위원회의 구성ㆍ운영 등에 필요한 사항은 환경부령으로 정한다. &lt;개정 2017.11.28&gt;</t>
+  </si>
+  <si>
+    <t>① 유해화학물질을 취급하는 자는 다음 각 호 어느 하나에 해당하는 경우 해당 유해화학물질에 적합한 개인보호장구를 착용하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 개인보호장구의 구체적 종류 및 기준 등은 해당 유해화학물질의 특성에 따라 환경부장관이 고시한다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질을 취급하는 자가 유해화학물질을 환경부령으로 정하는 일정량을 초과하여 진열ㆍ보관하고자 하는 경우에는 사전에 진열ㆍ보관계획서를 작성하여 환경부장관의 확인을 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에도 불구하고 유해화학물질을 취급하는 자가 유해화학물질의 보관ㆍ저장 시설을 보유하지 아니한 경우에는 진열하거나 보관할 수 없다.</t>
+  </si>
+  <si>
+    <t>③ 유해화학물질을 운반하는 자가 1회에 환경부령으로 정하는 일정량을 초과하여 운반하고자 하는 경우에는 환경부령으로 정하는 바에 따라 사전에 해당 유해화학물질의 운반자, 운반시간, 운반경로ㆍ노선 등을 내용으로 하는 운반계획서를 작성하여 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 제1항 및 제2항에 따른 계획서의 작성방법, 확인통보 등에 관한 구체적인 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질을 취급하는 자는 해당 유해화학물질의 용기나 포장에 다음 각 호의 사항이 포함되어 있는 유해화학물질에 관한 표시를 하여야 한다. 제조하거나 수입된 유해화학물질을 소량으로 나누어 판매하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질을 취급하는 자는 유해화학물질 취급시설과 취급현장, 유해화학물질을 보관ㆍ저장 또는 진열하는 장소, 유해화학물질 운반차량에 제1항에 따른 유해화학물질에 관한 표시를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 유해화학물질 이외의 화학물질에 대한 안전관리를 위하여 필요하다고 인정하면 그 물질을 취급하는 자에게 물질별로 적절한 표시를 하도록 권고할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 유해화학물질의 표시대상 및 표시방법 등에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질로 인하여 사람의 건강이나 환경에 중대한 위해가 발생하거나 발생할 우려가 있다고 판단하는 경우에는 유해화학물질의 제조, 수입, 판매, 보관ㆍ저장, 운반 또는 사용의 중지를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 제1항에 따라 유해화학물질의 제조ㆍ수입 등의 중지를 명하는 경우에는 이해관계인의 의견을 들어야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제1항 및 제2항에 따라 사업자가 유해화학물질의 제조ㆍ수입 등을 중지한 경우에는 관계 행정기관의 장에게 통보하며 일반 국민에게 공표하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 사업자는 제1항에 따른 중지조치에 대하여 이의가 있는 경우에는 대통령령으로 정하는 바에 따라 환경부장관에게 해당 중지의 전부 또는 일부의 해제를 요청할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 제1항에 따라 제조ㆍ수입 등을 중지한 유해화학물질이 사람의 건강이나 환경에 위해를 미칠 우려가 없어졌다고 인정하는 경우 해당 중지의 전부 또는 일부를 지체 없이 해제하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 누구든지 금지물질을 취급하여서는 아니 된다. 다만, 금지물질에 해당하는 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 제조ㆍ수입ㆍ판매하려는 자가 환경부령으로 정하는 바에 따라 환경부장관의 허가를 받은 경우는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 제1항 단서에 따라 금지물질 취급의 허가를 받은 자는 허가받은 사항 중 환경부령으로 정하는 사항을 변경하려면 환경부령으로 정하는 바에 따라 변경허가를 받거나 변경신고를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제1항 단서에 따라 허가를 하는 경우 화학사고 예방조치계획서 제출 등 해당 금지물질의 적절한 관리에 필요한 조건을 붙일 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 누구든지 제한물질을 사용이 제한된 용도로 취급하여서는 아니 된다. &lt;신설 2018.6.12&gt;</t>
+  </si>
+  <si>
+    <t>① 허가물질을 제조ㆍ수입ㆍ사용하려는 자는 다음 각 호의 자료를 제출하여 미리 환경부장관의 허가를 받아야 한다. 다만, 「화학물질의 등록 및 평가 등에 관한 법률」 제25조에 따른 허가유예기간에는 그러하지 아니한다.</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 화학물질에 대하여는 제1항을 적용하지 아니한다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 허가를 받으려는 자는 환경부령으로 정하는 바에 따라 허가신청을 하여야 한다. 다만, 동일한 허가물질을 제조ㆍ수입ㆍ사용하려는 자는 허가물질의 용도가 동일한 경우에 한정하여 공동으로 허가신청을 할 수 있다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 제3항에 따라 허가신청을 받은 날부터 환경부령으로 정한 기간 내에 제1항에 따라 제출된 자료를 검토하여 다음 각 호의 요건을 충족하는 경우에 허가 여부를 결정하여 신청인에게 통지하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 제4항에 따라 허가를 통지하는 경우 허가번호, 허가물질의 용도와 제조ㆍ수입ㆍ사용의 한정기간 등의 조건을 부여하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 제5항에 따른 허가물질의 제조ㆍ수입ㆍ사용의 한정기간을 부여받은 자는 그 기간 내에 환경부령으로 정하는 바에 따라 다시 허가를 받아야 한다. 이 경우 허가 여부 결정 및 통지 등에 관하여는 제4항 및 제5항을 준용한다.</t>
+  </si>
+  <si>
+    <t>⑦ 환경부장관은 다음 각 호의 어느 하나에 해당하는 경우에는 허가를 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 허가를 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑧ 제1항에 따른 자료의 세부내용, 제4항에 따른 허가 여부 결정 및 통지 등 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제한물질을 수입하려는 자는 해당 제한물질의 용도가 명확하고 적정한 관리가 가능한 경우에 한정하여 환경부령으로 정하는 바에 따라 환경부장관의 허가를 받아야 한다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>② 유독물질을 수입하려는 자는 환경부령으로 정하는 바에 따라 유독물질의 종류와 용도 등을 환경부장관에게 신고하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항에도 불구하고 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 사용하기 위하여 수입하려는 경우 등 대통령령으로 정하는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 허가를 받거나 제2항에 따라 신고한 사항을 변경하는 경우에는 환경부령으로 정하는 바에 따라 변경허가를 받거나 변경신고를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 제한물질(취급이 제한된 용도에 한정한다) 또는 금지물질을 수출하려는 자는 제2항제4호에 따른 수출통보서에 포함되어야 하는 정보에 관한 자료를 갖추어 환경부령으로 정하는 바에 따라 매년 환경부장관의 승인을 받아야 한다. 환경부령으로 정하는 중요한 사항이 변경되는 경우에도 또한 같다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 산업통상자원부장관과 협의하여 다음 각 호의 사항을 고시하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항제1호 및 제3호에 따른 화학물질을 수출하려는 자는 제2항제2호의 준수사항을 지켜야 한다.</t>
+  </si>
+  <si>
+    <t>① 누구든지 흥분ㆍ환각 또는 마취의 작용을 일으키는 화학물질로서 대통령령으로 정하는 물질(이하 "환각물질"이라 한다)을 섭취 또는 흡입하거나 이러한 목적으로 소지하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>② 누구든지 환각물질을 섭취하거나 흡입하려는 사람에게 그 사실을 알면서도 이를 판매하거나 제공하여서는 아니 된다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 취급시설을 설치ㆍ운영하려는 자는 사전에 화학사고 발생으로 사업장 주변 지역의 사람이나 환경 등에 미치는 영향을 평가하고 그 피해를 최소화하기 위한 화학사고예방관리계획서(이하 "화학사고예방관리계획서"라 한다)를 작성하여 환경부장관에게 제출하여야 한다. 다만, 다음 각 호의 어느 하나에 해당하는 유해화학물질 취급시설을 설치ㆍ운영하려는 자는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 화학사고예방관리계획서에 포함되어야 하는 내용은 다음 각 호의 내용을 포함하여 환경부령으로 정한다. 이 경우 취급하는 유해화학물질의 유해성 및 취급수량 등을 고려하여 화학사고예방관리계획서에 포함되어야 하는 내용을 달리 정할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 화학사고예방관리계획서를 제출한 자가 다음 각 호의 어느 하나에 해당하는 경우에는 환경부령으로 정하는 바에 따라 변경된 화학사고예방관리계획서를 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 취급하는 유해화학물질의 유해성 및 취급수량 등을 고려하여 환경부령으로 정하는 기준 이상의 유해화학물질 취급시설(이하 "주요취급시설"이라 한다)을 설치ㆍ운영하는 자는 5년마다 화학사고예방관리계획서를 환경부령으로 정하는 바에 따라 작성하여 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 제1항, 제3항 또는 제4항에 따라 제출된 화학사고예방관리계획서(변경된 화학사고예방관리계획서를 포함한다)를 환경부령으로 정하는 바에 따라 검토한 후 이를 제출한 자에게 해당 유해화학물질 취급시설의 위험도 및 적합 여부를 통보하여야 한다. 이 경우 적합통보를 받은 자는 해당 화학사고예방관리계획서를 사업장 내에 비치하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 환경부장관은 제5항에 따른 적합 여부를 결정할 때 유해화학물질 취급시설의 사고위험성 등을 고려하여 환경부령으로 정하는 시설에 대하여 현장조사를 실시할 수 있다. 이 경우 해당 유해화학물질 취급시설에 대한 화학사고예방관리계획서를 제출한 자는 현장조사에 성실히 협조하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑦ 환경부장관은 제5항 및 제6항에 따라 화학사고예방관리계획서를 검토한 결과 이를 수정ㆍ보완할 필요가 있는 경우에는 해당 화학사고예방관리계획서를 제출한 자에게 수정ㆍ보완을 요청할 수 있다. 이 경우 요청을 받은 자는 특별한 사유가 없으면 화학사고예방관리계획서를 수정ㆍ보완하여 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑧ 환경부장관은 제5항에 따른 검토를 위하여 필요하다고 인정하는 경우에는 해당 지방자치단체의 장에게 협의를 요청할 수 있다. 이 경우 협의를 요청받은 지방자치단체의 장은 화학사고예방관리계획서를 검토한 후 그 검토의견을 환경부장관에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑨ 화학사고예방관리계획서의 작성 내용ㆍ방법과 제출 시기ㆍ방법, 현장조사 등에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제23조에 따라 화학사고예방관리계획서를 제출하여 유해화학물질 취급시설을 설치ㆍ운영하는 자는 화학사고예방관리계획서를 성실히 이행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 주요취급시설에 대하여 화학사고예방관리계획서의 이행 여부를 정기적으로 점검하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제2항에 따른 점검 결과 주요취급시설 등을 개선ㆍ보완할 필요가 있다고 인정하는 경우에는 주요취급시설을 설치ㆍ운영하는 자에게 시정조치나 그 밖에 필요한 조치를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제2항에 따른 점검 방법ㆍ주기 및 제3항에 따른 조치 등에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 주요취급시설을 설치ㆍ운영하려는 자로서 제23조제5항에 따라 적합통보를 받은 자는 취급사업장 인근 지역주민에게 다음 각 호의 정보를 알기 쉽게 명시하여 고지하여야 한다. 이 경우 고지는 제2항에 따른 방법으로 매년 1회 이상 실시하여야 하며, 고지된 사항이 변경된 때에는 그 사유가 발생한 날부터 1개월 이내에 변경사항에 대하여 고지하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 고지는 같은 항 각 호의 정보를 제48조제1항에 따른 화학물질 종합정보시스템에 등록하는 방법으로 하여야 한다. 이 경우 서면통지, 개별설명 또는 집합전달 등의 방법 중 하나 이상의 방법을 함께 사용하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 지방자치단체의 장은 제1항에 따른 고지가 원활히 이행될 수 있도록 필요한 지원을 할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 지역주민에게 고지하여야 하는 자는 제2항의 방법에 따른 고지 외에도 지역주민의 요청이 있을 경우 제1항 각 호의 정보를 지역주민에게 개별적으로 통지하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 제1항부터 제4항까지에 따른 화학사고예방관리계획서의 지역사회 고지에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 지방자치단체의 장은 관할 지역에서 화학사고가 발생하는 경우에 대비하기 위하여 다음 각 호의 사항이 포함된 계획(이하 "지역화학사고대응계획"이라 한다)을 수립하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 지방자치단체의 장이 관할 지역의 지역화학사고대응계획을 수립하거나 관할 소방관서의 장 등 화학사고 대응 관계 기관의 장이 화학사고에 대비ㆍ대응하기 위한 경우 필요한 범위에서 관련 자료를 지방자치단체의 장 등에게 제공할 수 있다. 이 경우 자료를 제공받은 지방자치단체의 장 등은 「공공기관의 정보공개에 관한 법률」 및 그 밖의 다른 법률에 따른 정보공개절차에 의하지 아니하고 이를 공개하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>③ 지역화학사고대응계획의 수립 및 제2항에 따른 자료 제공의 범위 및 절차 등에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 취급시설은 환경부령으로 정하는 배치ㆍ설치 및 관리 기준 등에 따라 설치ㆍ운영되어야 한다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질 취급시설의 설치를 마친 자는 환경부령으로 정하는 검사기관에서 검사를 받고 그 결과를 환경부장관에게 제출하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 유해화학물질 취급시설을 설치ㆍ운영하는 자는 취급시설별로 환경부령으로 정하는 기간마다 제2항에 따른 검사기관에서 정기검사 또는 수시검사를 받고 그 결과를 환경부장관에게 제출하여야 한다. 다만, 제5항에 따라 안전진단을 실시하고 안전진단결과보고서를 제출한 자에 대하여는 환경부령으로 정하는 기간 동안 정기검사를 면제할 수 있다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>④ 제3항 본문에도 불구하고 다음 각 호의 어느 하나에 해당하는 유해화학물질 취급시설을 설치ㆍ운영하는 자에 대해서는 정기검사 및 수시검사를 면제한다. &lt;신설 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 유해화학물질 취급시설의 설치를 마친 자 또는 유해화학물질 취급시설을 설치ㆍ운영하는 자는 다음 각 호의 어느 하나에 해당하는 경우에는 제2항에 따른 검사기관에 의한 안전진단을 실시하고 취급시설의 안전 상태를 입증하기 위한 안전진단결과보고서를 환경부장관에게 제출하여야 한다. &lt;개정 2020.3.31, 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제2항 및 제3항에 따른 검사 또는 제5항에 따른 안전진단 결과 적합 판정을 받지 아니한 유해화학물질 취급시설은 사용할 수 없다. 다만, 검사 또는 안전진단을 위하여 그 시설을 사용하는 경우에는 그러하지 아니하다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 제2항 및 제3항에 따른 검사의 절차ㆍ기준 및 검사기관의 관리기준, 제5항에 따른 안전진단의 세부적인 방법 등에 관하여 필요한 사항은 환경부령으로 정한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질 취급시설이 다음 각 호의 어느 하나에 해당하는 경우에는 해당 시설을 설치ㆍ운영하는 자에게 환경부령으로 정하는 바에 따라 기간을 정하여 그 시설의 개선을 명할 수 있다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 제1항에 따른 개선명령을 받은 자가 기간 내에 이를 이행하지 아니하거나 그 이행이 불가능하다고 판단되면 해당 시설의 가동중지를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 취급시설을 설치ㆍ운영하는 자(가동중단 또는 휴업 중인 자를 포함한다)는 주 1회 이상 해당 유해화학물질의 취급시설 및 장비 등에 대하여 환경부령으로 정하는 바에 따라 정기적으로 점검을 실시하고 그 결과를 5년간 기록ㆍ비치하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 점검의 내용은 다음 각 호와 같다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 영업을 하려는 자는 환경부령으로 정하는 바에 따라 사전에 다음 각 호의 서류를 제출하여야 한다. &lt;개정 2016.5.29, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 서류를 제출한 자는 환경부령으로 정하는 기준에 맞는 유해화학물질별 취급시설ㆍ장비 및 기술인력을 갖추어 업종별로 환경부장관의 허가를 받아야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 서류를 제출한 자는 환경부령으로 정하는 기간 내에 환경부장관의 허가를 받아야 한다. 이 경우 환경부장관은 해당 유해화학물질 취급에 적정한 관리를 위하여 필요한 조건을 붙일 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 유해화학물질 영업을 하려는 자가 제1항에 따른 서류제출과 제2항에 따른 취급시설ㆍ장비 및 기술인력 등의 요건을 갖추어 허가신청을 할 때에는 지체 없이 허가하여야 한다. 다만, 환경부령으로 정하는 중요 사항이 변경된 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>⑤ 제4항에 따른 유해화학물질 영업허가를 받은 자가 허가받은 사항 중 환경부령으로 정하는 중요 사항을 변경하려면 변경허가를 받아야 하고, 그 밖의 사항을 변경하려면 변경신고를 하여야 한다. 이 경우 변경허가나 변경신고의 절차는 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>⑥ 환경부장관은 제5항 전단에 따른 변경신고를 받은 경우 그 내용을 검토하여 이 법에 적합하면 신고를 수리하여야 한다. &lt;신설 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 환경부장관은 제3항에 따른 허가 또는 제5항에 따른 변경허가를 하거나 같은 항에 따른 변경신고를 수리한 경우에는 그 사항을 환경부령으로 정하는 바에 따라 유해화학물질 취급시설의 소재지를 관할하는 소방관서의 장에게 알려야 한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑧ 환경부장관은 유해화학물질 취급시설 설치현황을 환경부령으로 정하는 바에 따라 소방관서와 지방자치단체 등 화학사고 대응 기관에 제공하여야 한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자가 「전자상거래 등에서의 소비자보호에 관한 법률」에 따른 통신판매를 하는 경우 구매자에 대한 실명ㆍ연령 확인 및 본인 인증을 거쳐야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 구매자에 대한 실명ㆍ연령 확인 및 본인 인증에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제29조제2호에 따라 영업허가를 면제 받아 시약을 판매하는 자는 구매자에게 다음 각 호의 사항을 알려주어야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 고지의 방법 등에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제29조에도 불구하고 유해화학물질에 해당하는 시험용ㆍ연구용ㆍ검사용 시약을 그 목적으로 판매하는 영업을 하려는 자는 환경부장관에게 신고하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 신고를 한 자가 신고한 사항 중 환경부령으로 정하는 중요 사항을 변경하려는 경우에는 변경신고를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제1항 및 제2항에 따라 신고를 받으면 그 신고 내용을 확인한 후 지체 없이 신고확인증을 신고인에게 발급하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 제1항부터 제3항까지의 규정에 따른 신고, 변경신고의 방법 및 절차, 신고확인증에 관하여 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제27조에 따른 유해화학물질 영업을 하는 자(이하 "유해화학물질 영업자"라 한다)가 해당 유해화학물질의 취급을 도급(하도급을 포함한다. 이하 같다)하는 경우 해당 수급인(하수급인을 포함한다. 이하 같다)의 명칭, 도급의 사유, 도급계획 및 화학사고 안전관리계획 등에 관한 사항을 환경부령으로 정하는 바에 따라 환경부장관에게 신고하여야 한다. 신고한 사항 중 환경부령으로 정하는 중요한 사항을 변경하려는 경우에도 또한 같다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 제1항에 따른 신고 또는 변경신고를 받은 경우 그 내용을 검토하여 이 법에 적합하면 신고 또는 변경신고를 수리하여야 한다. &lt;신설 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항에 따라 유해화학물질 취급을 도급받은 수급인이 도급받은 업무와 관련하여 이 법을 위반한 경우 이 법 위반에 따른 효과는 도급인에게도 미친다. 다만, 제7장 벌칙(제57조부터 제64조까지)을 적용할 때에는 그러하지 아니하다. &lt;개정 2020.3.31, 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 도급인은 환경부령으로 정한 능력과 기준을 갖춘 자에게만 해당 유해화학물질의 취급을 도급하여야 한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 도급인이 유해화학물질의 취급을 도급한 경우에는 해당 수급인을 관리ㆍ감독하여야 할 의무가 있고, 수급인에게 무리한 취급시설의 운영 등 환경부령으로 정한 사항을 요구하여서는 아니 된다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 영업자는 유해화학물질 취급시설의 안전 확보와 유해화학물질의 위해 방지에 관한 직무를 수행하게 하기 위하여 사업 개시 전에 해당 영업자의 유해화학물질 취급량 및 종사자수 등 환경부령으로 정하는 기준에 따라 유해화학물질관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질 영업자가 유해화학물질 취급시설 관리를 전문으로 하는 자에게 위탁하여 관리하게 할 경우에는 그 유해화학물질 취급시설의 관리업무를 위탁받은 자(이하 "수탁관리자"라 한다)가 제1항에 따른 유해화학물질관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항이나 제2항에 따라 유해화학물질관리자를 선임한 자는 유해화학물질관리자를 선임 또는 해임하거나 유해화학물질관리자가 퇴직한 경우에는 지체 없이 이를 환경부장관에게 신고하고, 해임 또는 퇴직한 날부터 30일 이내에 다른 유해화학물질관리자를 선임하여야 한다. 다만, 그 기간 내에 선임할 수 없으면 환경부장관의 승인을 받아 그 기간을 연장할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 제1항이나 제2항에 따라 유해화학물질관리자를 선임한 자는 유해화학물질관리자가 여행 또는 질병, 그 밖의 사유로 인하여 일시적으로 그 직무를 수행할 수 없으면 대리자를 지정하여 그 직무를 대행하게 하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑤ 유해화학물질관리자는 유해화학물질 취급시설 종사자에게 해당 유해화학물질에 대한 안전관리 정보를 제공하고 수탁관리자 및 취급시설 종사자가 이 법 또는 이 법에 따른 명령을 위반하지 아니하도록 지도ㆍ감독하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 유해화학물질 영업자, 수탁관리자 및 종사자는 유해화학물질관리자의 안전에 관한 의견을 존중하고 권고에 따라야 한다.</t>
+  </si>
+  <si>
+    <t>⑦ 유해화학물질관리자의 종류ㆍ자격ㆍ인원ㆍ직무범위 및 유해화학물질관리자의 대리자 대행 기간과 그 밖에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 제28조제2항에 따른 유해화학물질 취급시설의 기술인력, 제32조에 따른 유해화학물질관리자, 그 밖에 대통령령으로 정하는 유해화학물질 취급 담당자는 환경부령으로 정하는 교육기관이 실시하는 유해화학물질 안전교육(이하 "유해화학물질 안전교육"이라 한다)을 받아야 한다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질 영업자는 유해화학물질 안전교육을 받아야 할 사람을 고용한 때에는 그 해당자에게 유해화학물질 안전교육을 받게 하여야 한다. 이 경우 유해화학물질 영업자는 교육에 드는 경비를 부담하여야 한다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 유해화학물질 영업자는 해당 사업장의 모든 종사자에 대하여 환경부령으로 정하는 바에 따라 정기적으로 유해화학물질 안전교육을 실시하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 영업자가 환경부령으로 정하는 바에 따라 사업장 내 유해화학물질의 취급을 중단하거나 취급방식을 변경하려는 경우 미리 환경부령으로 정하는 바에 따라 조치하여야 한다. 다만, 폐업의 경우 미리 사업장의 잔여 유해화학물질을 처분하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질 영업자가 그 영업을 폐업하거나 휴업하려는 경우 및 환경부령으로 정하는 일정 기간 이상 유해화학물질 취급시설을 가동하지 아니하는 경우에는 제1항에 따른 처분을 한 이후에 환경부령으로 정하는 바에 따라 환경부장관에게 신고하여야 한다. &lt;개정 2016.12.27&gt;</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제2항에 따른 폐업 또는 휴업 신고의 내용을 검토한 결과 사람의 건강이나 환경을 해칠 우려가 있다고 인정하면 해당 유해화학물질 영업자에게 폐업 또는 휴업 전에 해당 유해화학물질의 위해성 방지를 위하여 필요한 조치를 취할 것을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하는 경우에는 기간을 정하여 개선을 명할 수 있다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 개선명령의 세부적인 기준은 위반 횟수, 사람의 건강이나 환경에 미치는 영향의 정도, 유해화학물질 영업자의 고의ㆍ과실 등을 고려하여 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하면 그 허가를 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 유해화학물질 영업자가 다음 각 호의 어느 하나에 해당하면 그 영업허가를 취소하거나 6개월 이내의 기간을 정하여 영업의 전부 또는 일부의 정지를 명할 수 있다. &lt;개정 2016.1.27, 2017.11.28, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항에 따른 행정처분의 기준에 관한 사항은 위반횟수, 사람의 건강이나 환경에 미치는 영향의 정도 등을 고려하여 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질 영업자에 대하여 제35조제2항에 따라 영업정지를 명하여야 하는 경우에는 대통령령으로 정하는 바에 따라 영업정지 처분을 갈음하여 해당 사업장 매출액의 100분의 5 이하의 과징금을 부과할 수 있다. 다만, 단일 사업장을 보유하고 있는 기업의 경우에는 매출액의 1천분의 25를 초과하지 못한다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 과징금은 위반행위의 종류, 사업규모, 위반횟수 등을 참작하여 대통령령으로 정하는 기준에 따라 과징금을 부과하되, 그 금액의 2분의 1의 범위에서 가중(加重)하거나 감경(減輕)할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제1항에 따른 과징금을 부과하기 위하여 필요한 경우에는 다음 각 호의 사항을 적은 문서로 관할 세무관서의 장에게 과세정보 제공을 요청할 수 있다. &lt;신설 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따른 과징금을 내야 하는 자가 납부기한까지 내지 아니하면 환경부장관은 대통령령으로 정하는 바에 따라 제1항에 따른 과징금 부과처분을 취소하고 영업정지 처분을 하거나 국세 체납처분의 예에 따라 징수한다. 다만, 제34조에 따른 폐업 또는 휴업으로 제35조제2항에 따른 영업정지 처분을 할 수 없는 경우에는 국세 체납처분의 예에 따라 징수한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항에 따라 환경부장관이 부과ㆍ징수한 과징금은 「환경정책기본법」에 따른 환경개선특별회계의 세입으로 한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>① 유해화학물질 영업자가 사망하거나 그 영업을 양도한 때 또는 법인이 합병한 때에는 그 상속인ㆍ양수인 또는 합병 후 존속하는 법인이나 합병에 따라 설립되는 법인은 허가에 따른 유해화학물질 영업자의 권리ㆍ의무를 승계한다. 이 경우 그 상속인이 제30조제1호부터 제3호까지의 규정 중 어느 하나에 해당하는 경우에는 90일 이내에 그 사업을 다른 사람에게 양도할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 절차에 따라 유해화학물질 취급시설을 인수한 자는 그 영업자의 지위를 승계한다. 이 경우 종전의 영업자에 대한 영업 허가ㆍ등록 또는 그가 한 신고는 그 효력을 잃는다. &lt;개정 2016.12.27&gt;</t>
+  </si>
+  <si>
+    <t>③ 유해화학물질 영업자가 그 영업을 양도하거나 사망한 때 또는 법인을 합병한 때에는 종전의 유해화학물질 영업자에 대하여 제35조 및 제36조에 따른 행정처분의 효과는 그 처분기간이 끝난 날부터 1년간 양수인ㆍ상속인 또는 합병 후 신설되거나 존속하는 법인에 승계되며, 행정처분의 절차가 진행 중인 때에는 양수인ㆍ상속인 또는 합병 후 신설되거나 존속하는 법인에 행정처분의 절차를 계속 진행할 수 있다. 다만, 양수인 또는 합병 후 신설되거나 존속하는 법인이 그 처분이나 위반의 사실을 양수 또는 합병한 때에 알지 못하였음을 증명하는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>④ 제1항에 따라 유해화학물질 영업자의 권리ㆍ의무를 승계한 자는 환경부령으로 정하는 바에 따라 승계한 날부터 30일 이내에 이를 환경부장관에게 신고하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 같은 부지나 건축물에 사업장이 설치되어 있는 둘 이상의 유해화학물질 영업자는 환경부령으로 정하는 바에 따라 환경부장관의 승인을 받아 유해화학물질 취급시설이나 유해화학물질관리자를 공동으로 활용할 수 있다. 이 경우 각 유해화학물질 영업자별로 유해화학물질 취급시설이나 유해화학물질관리자를 갖춘 것으로 본다.</t>
+  </si>
+  <si>
+    <t>② 유해화학물질 영업자는 제1항에 따라 승인을 받은 사항 중 환경부령으로 정하는 중요한 사항을 변경하려면 환경부령으로 정하는 바에 따라 신고를 하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 화학사고가 발생하거나 발생할 우려가 있으면 해당 화학물질을 취급하는 자는 즉시 화학사고예방관리계획서에 따라 위해방제에 필요한 응급조치를 하여야 한다. 다만, 화학사고의 중대성ㆍ시급성이 인정되는 경우에는 취급시설의 가동을 중단하여야 한다. &lt;개정 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 화학사고가 발생하면 해당 화학물질을 취급하는 자는 즉시 관할 지방자치단체, 지방환경관서, 국가경찰관서, 소방관서 또는 지방고용노동관서에 신고하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항에 따라 신고를 받은 기관의 장은 즉시 이를 환경부령으로 정하는 바에 따라 화학사고의 원인ㆍ규모 등을 환경부장관에게 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>④ 제2항에 따른 신고 또는 제3항에 따른 통보를 한 경우에는 「재난 및 안전관리 기본법」 제18조에 따른 신고 또는 통보를 각각 마친 것으로 본다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 화학사고의 신속한 대응 및 상황 관리, 사고정보의 수집과 통보를 위하여 해당 화학사고 발생현장에 환경부령으로 정하는 요건을 갖춘 현장수습조정관을 파견할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 현장수습조정관의 역할은 다음과 같다.</t>
+  </si>
+  <si>
+    <t>③ 화학사고가 발생한 지역을 관할하는 지방자치단체의 장(해당 지역에 소재하는 긴급구조기관 및 긴급구조지원기관을 포함한다)은 현장수습조정관이 화학사고 현장에서 원활히 업무를 수행할 수 있도록 적극 협조하여야 하고 주요한 사안을 결정ㆍ집행할 경우에는 현장수습조정관과 협의하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 제44조에 따른 현장수습조정관은 같은 조 제2항 각 호에 따른 업무의 효율적인 수행을 위하여 필요하다고 인정되는 경우 해당 화학물질 취급시설에 대한 가동 중지를 명령(이하 "가동중지명령"이라 한다)할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 가동중지명령을 받은 사업자는 즉시 해당 화학물질 취급시설의 가동을 중지하여야 하고, 환경부장관이 그 가동중지명령을 해제할 때까지는 해당 화학물질 취급시설을 가동하여서는 아니 된다.</t>
+  </si>
+  <si>
+    <t>③ 가동중지명령과 가동중지명령 해제의 요건, 방법 및 절차 등에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 화학사고의 원인 규명, 사람의 건강이나 환경 피해의 최소화 및 복구 등을 위하여 필요한 경우 관계 기관의 장과 협의하여 다음 각 호의 사항에 대하여 영향조사(이하 "영향조사"라 한다)를 실시하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 영향조사를 수행하기 위하여 대통령령으로 정하는 바에 따라 제44조에 따른 현장수습조정관을 단장으로 하는 화학사고 조사단을 구성ㆍ운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 해당 화학사고의 원인이 되는 사업자에 대하여 환경부령으로 정하는 기한 내에 다음 각 호의 조치를 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 조치명령을 받은 자는 환경부령으로 정하는 바에 따라 이행계획서를 환경부장관에게 제출하여 제1항에 따른 조치명령을 이행하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 제1항제1호에 따른 최소화 및 제거 조치를 결정하는 경우 화학물질의 유해성ㆍ위해성, 노출경로 등을 고려하여 우선순위를 정할 수 있다. &lt;개정 2020.5.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항제2호에 따른 복구조치의 기준은 「대기환경보전법」ㆍ「물환경보전법」ㆍ「토양환경보전법」에서 규정한 환경기준을 적용하고, 환경기준이 없는 경우에는 환경부장관이 별도로 정하는 지침을 따른다. &lt;개정 2017.1.17&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항 및 제2항에 따른 최소화ㆍ제거 조치, 복구조치 및 이행계획서의 작성방법에 관한 세부적인 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 화학사고 발생에 따른 현장 대응을 강화하기 위하여 산업단지 등 화학사고 발생 우려가 높은 지역을 대통령령으로 정하는 바에 따라 화학사고 특별관리지역(이하 "특별관리지역"이라 한다)으로 지정할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 특별관리지역을 지정하려는 경우 환경부장관은 그 지역을 관할하는 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 및 특별자치도지사와 협의하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 환경부장관은 특별관리지역 내에 화학물질을 취급하는 사업장에 대한 상시적인 관리ㆍ감독 및 화학사고 대응 등을 위하여 전담기관을 설치ㆍ운영할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 유해화학물질 취급시설 설치현황 등 화학물질의 안전관리, 화학사고 발생 이력(履歷) 및 화학사고 대비ㆍ대응 등과 관련된 정보를 수집ㆍ보급하기 위하여 화학물질 종합정보시스템을 구축ㆍ운영하여야 한다. &lt;개정 2015.1.20, 2018.12.24&gt;</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 제1항에 따른 화학물질 종합정보시스템에 의하여 확보된 화학물질의 안전관리 등과 관련된 정보를 대통령령으로 정하는 바에 따라 화학물질을 취급하는 자, 지방자치단체ㆍ관할 소방관서의 장 등 화학사고 대응 관계 기관 및 국민에게 제공하여야 한다. &lt;개정 2015.1.20, 2018.12.24&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항의 화학물질 종합정보시스템의 구축ㆍ운영 등에 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 다음 각 호에 해당하는 자에 대하여 각각 환경부령으로 정하는 바에 따라 필요한 보고를 명하거나 자료를 제출하게 하거나, 관계 공무원으로 하여금 해당 사업장 또는 시설에 출입하여 화학물질을 채취하게 하거나 관련 서류ㆍ시설 및 장비 등을 검사하게 할 수 있다. 이 경우 시험을 위하여 필요한 최소량의 화학물질 및 시료를 무상으로 수거하게 할 수 있다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 출입하거나 검사를 하는 공무원은 그 권한을 표시하는 증표를 지니고 이를 관계인에게 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자는 해당 화학물질의 취급과 관련된 사항을 5년간 환경부령으로 정하는 바에 따라 기록ㆍ보존하여야 한다. &lt;개정 2016.12.27&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 경우 전산 입력 자료가 있으면 해당 서류를 갈음하여 전산 입력 자료를 보존할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 이 법에 따라 자료를 제출한 자가 비밀보호를 위하여 화학물질의 성분 등에 대한 자료 보호를 요청하면 대통령령으로 정하는 자료보호기간 동안 이를 공개하여서는 아니 된다. 다만, 다음 각 호의 어느 하나에 해당하는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 제1항 본문에 따라 보호를 요청한 자료가 같은 항 단서에 따른 자료보호 대상이 아닌 자료에 해당되면 보호를 요청한 자에게 이를 알려야 한다.</t>
+  </si>
+  <si>
+    <t>③ 그 밖에 자료보호 요청의 절차 등 필요한 사항은 환경부령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 화학물질을 제조, 수입, 판매, 보관ㆍ저장, 운반 또는 사용하는 영업을 하는 자는 화학물질의 적정한 관리, 기술개발, 그 밖에 영업의 건전한 발전을 도모하기 위하여 화학물질 관리에 관한 협회(이하 "협회"라 한다)를 설립할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 협회는 법인으로 한다.</t>
+  </si>
+  <si>
+    <t>③ 협회는 정관을 작성하여 환경부장관의 인가를 받아야 한다. 이를 변경하려는 경우에도 또한 같다.</t>
+  </si>
+  <si>
+    <t>④ 환경부장관은 협회의 운영이 법령에 위반되거나 정관에 위배된다고 인정하면 시정을 요구할 수 있다.</t>
+  </si>
+  <si>
+    <t>⑤ 환경부장관은 협회가 다음 각 호의 어느 하나에 해당하는 경우에는 인가를 취소할 수 있다. 다만, 제1호에 해당하는 경우에는 인가를 취소하여야 한다.</t>
+  </si>
+  <si>
+    <t>⑥ 협회에 관하여는 이 법에서 규정한 것 외에는 「민법」 중 사단법인에 관한 규정을 준용한다.</t>
+  </si>
+  <si>
+    <t>① 환경부장관은 이 법에 따른 권한의 일부를 대통령령으로 정하는 바에 따라 소속 기관의 장에게 위임할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 환경부장관은 이 법에 따른 업무의 일부를 대통령령으로 정하는 바에 따라 「한국환경산업기술원법」에 따른 한국환경산업기술원, 「한국환경공단법」에 따른 한국환경공단, 협회에 위탁할 수 있다. &lt;개정 2015.12.1&gt;</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자에게는 1천만원 이하의 과태료를 부과한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>② 다음 각 호의 어느 하나에 해당하는 자에게는 300만원 이하의 과태료를 부과한다. &lt;개정 2016.12.27, 2017.11.28, 2020.3.31&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항에 따른 과태료는 대통령령으로 정하는 바에 따라 환경부장관이 부과ㆍ징수한다.</t>
   </si>
   <si>
     <t>1. "화학물질"이란 원소ㆍ화합물 및 그에 인위적인 반응을 일으켜 얻어진 물질과 자연 상태에서 존재하는 물질을 화학적으로 변형시키거나 추출 또는 정제한 것을 말한다.</t>
